--- a/转json/Tables/__tables__.xlsx
+++ b/转json/Tables/__tables__.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkill\转json\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48AC211-0146-4E51-B34D-313AC0C203D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F419792-5E46-4077-9F7A-D77923C1C0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4035" yWindow="3930" windowWidth="31230" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -142,22 +142,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tb_Bullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bullet.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>子弹表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tb_Item</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -271,21 +255,6 @@
   </si>
   <si>
     <t>术法表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_HandSkill</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandSkill</t>
-  </si>
-  <si>
-    <t>HandSkill.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>手法表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -673,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -831,28 +800,28 @@
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" t="s">
-        <v>36</v>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>45</v>
@@ -915,27 +884,25 @@
         <v>36</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="I11" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -948,29 +915,31 @@
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>69</v>
@@ -990,50 +959,10 @@
         <v>72</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>80</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/转json/Tables/__tables__.xlsx
+++ b/转json/Tables/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F419792-5E46-4077-9F7A-D77923C1C0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BCDDC-C264-4BE7-B41E-76CE74BEF592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="3930" windowWidth="31230" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>##var</t>
   </si>
@@ -103,41 +103,6 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>武器表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_Map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map</t>
-  </si>
-  <si>
-    <t>Map.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -162,22 +127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tb_ActivitiesUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivitiesUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActivitiesUI.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动UI表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tb_Functions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -191,34 +140,6 @@
   </si>
   <si>
     <t>方法表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_NPC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NPC表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb_Equip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equip.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -642,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -760,31 +681,31 @@
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>36</v>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -800,28 +721,26 @@
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="2"/>
+      <c r="I6" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>45</v>
@@ -837,11 +756,11 @@
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>49</v>
@@ -857,112 +776,14 @@
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="I11" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="b">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/转json/Tables/__tables__.xlsx
+++ b/转json/Tables/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01BCDDC-C264-4BE7-B41E-76CE74BEF592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E54053C-2AD3-48AD-90DC-6D84618B29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3870" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>##var</t>
   </si>
@@ -207,6 +207,52 @@
   </si>
   <si>
     <t>载体表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_Suit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>Suit.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防具表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_Material</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>Material.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,120 +716,180 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="2"/>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="I6" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/转json/Tables/__tables__.xlsx
+++ b/转json/Tables/__tables__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\softwares\unityProjects\PlayerSkillF\转json\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E54053C-2AD3-48AD-90DC-6D84618B29FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A899977A-2644-4F38-8140-1CED4390DAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="4710" windowWidth="33930" windowHeight="16170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,26 +107,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tb_Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item.xlsx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>物品表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>tb_Functions</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -253,6 +237,22 @@
   </si>
   <si>
     <t>材料表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop.xlsx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb_Prop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +612,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,180 +716,180 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
